--- a/biology/Médecine/Chromosome_19_humain/Chromosome_19_humain.xlsx
+++ b/biology/Médecine/Chromosome_19_humain/Chromosome_19_humain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chromosome 19 est un des 24 chromosomes humains. C'est l'un des 22 autosomes.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques du chromosome 19</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nombre de paires de base : 63 811 651
 Nombre de gènes : 1 468
@@ -545,7 +559,9 @@
           <t>Gènes localisés sur le chromosome 19</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>gène EYCL1, responsable, en partie, de la couleur des yeux (avec notamment les gènes EYCL2 et EYCL3). L'allèle dominant G code les yeux verts et l'allèle récessif b code les yeux bleus</t>
         </is>
@@ -575,7 +591,9 @@
           <t>Maladies localisées sur le chromosome 19</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La nomenclature utilisée pour localiser un gène est décrite dans l'article de celui-ci
 Les maladies en rapport avec des anomalies génétiques localisées sur le chromosome 19 sont :
@@ -608,6 +626,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -633,10 +653,12 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Ensemble Genome Browser [1]
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD.[2]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Ensemble Genome Browser 
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD.
  Portail de la médecine                     </t>
         </is>
       </c>
